--- a/XLSX/VVK_EIR_s1_NSIK_11_ER.xlsx
+++ b/XLSX/VVK_EIR_s1_NSIK_11_ER.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="198">
   <si>
     <t xml:space="preserve">Komponento pavadinimas pagal NSIK klasifikatorių</t>
   </si>
@@ -108,26 +108,26 @@
     <t xml:space="preserve">Tarp fiksuotų padėčių objektą ar objektus palaikantis komponentas, kuris įrengtas išilgai laikomojo komponento ar sistemos ir yra nuolatiniame sąlytyje su tuo komponentu ar sistema.</t>
   </si>
   <si>
-    <t xml:space="preserve">ryšio kabelių lovys, 
+    <t xml:space="preserve">kabelio kopėčios, 
+kabelio kanalas, 
+įrangos laikiklis, 
+įrenginių dėklas, 
+kabelio vielinis lovelis, 
+Atviras dėklas, 
+vamzdžių dėklas, 
+įrangos dėklas, 
+ryšio kabelių lovys, 
 laidų kanalas, 
-kabelio vielinis lovelis, 
+įrangą laikanti konstrukcija, 
+kabelių laikiklis, 
+uždaras dėklas, 
+kabelio lovelis, 
+vamzdžių kanalas, 
+laidų dėklas, 
 instaliacinis vamzdis, 
-vamzdžių dėklas, 
-įrenginių dėklas, 
-įrangos laikiklis, 
 kabelių kanalas, 
-kabelio kopėčios, 
-kabelio kanalas, 
-vamzdžių kanalas, 
 laido kanalas, 
-įrangą laikanti konstrukcija, 
-kabelio lovelis, 
-kabelių laikiklis, 
-Atviras dėklas, 
-įrangos dėklas, 
-uždaras dėklas, 
-Kabelio kanalas, 
-laidų dėklas</t>
+Kabelio kanalas</t>
   </si>
   <si>
     <t xml:space="preserve">IfcFlowSegment, 
@@ -246,15 +246,15 @@
     <t xml:space="preserve">Elektrinio signalo apdorojimo komponentas, įėjimus ir išėjimus įrenginiams tiekiantis automatiškai.</t>
   </si>
   <si>
-    <t xml:space="preserve">Eterneto plokštė, 
+    <t xml:space="preserve">I/O įtaisas, 
+Eterneto plokštė, 
 Valdiklis, 
+ugnesienės plokštė, 
+Kontroleris, 
+įėjimo ir išėjimo įtaisas, 
+įėjimo ir išėjimo modulis, 
 I/O modulis, 
-įėjimo ir išėjimo modulis, 
-usb kortelė, 
-Kontroleris, 
-I/O įtaisas, 
-ugnesienės plokštė, 
-įėjimo ir išėjimo įtaisas</t>
+usb kortelė</t>
   </si>
   <si>
     <t xml:space="preserve">IfcDistributionControlElement, 
@@ -307,10 +307,10 @@
     <t xml:space="preserve">Privataus ryšio telefono komutatorius.</t>
   </si>
   <si>
-    <t xml:space="preserve">Žinybinė telefonų stotis, 
-privataus telefoninio ryšio sistema, 
+    <t xml:space="preserve">PBX, 
 PBX stotelė, 
-PBX</t>
+Žinybinė telefonų stotis, 
+privataus telefoninio ryšio sistema</t>
   </si>
   <si>
     <t xml:space="preserve">Telefonas</t>
@@ -322,11 +322,11 @@
     <t xml:space="preserve">Signalo konvertavimo komponentas, konvertuojantis signalą tarp akustinių bangų ir elektrinių signalų.</t>
   </si>
   <si>
-    <t xml:space="preserve">Telefono aparatas, 
-Korinio ryšio telefonas, 
-telefonas, 
+    <t xml:space="preserve">Korinio ryšio telefonas, 
+Telefono aparatas, 
 mobilusis telefonas, 
-Vietinio ryšio telefono aparatas</t>
+Vietinio ryšio telefono aparatas, 
+telefonas</t>
   </si>
   <si>
     <t xml:space="preserve">Optinio tinklo komutatorius</t>
@@ -465,10 +465,10 @@
     <t xml:space="preserve">Elektrinio signalo apdorojimo komponentas, persiunčiantis signalus tarp duomenų tinklų be žmogaus įsikišimo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Laidinio tinklo maršrutizatorius, 
+    <t xml:space="preserve">ugniasienė, 
 Apsaugos prietaisas, 
-duomenų tinklo sietuvas, 
-ugniasienė</t>
+Laidinio tinklo maršrutizatorius, 
+duomenų tinklo sietuvas</t>
   </si>
   <si>
     <t xml:space="preserve">Duomenų kabelis</t>
@@ -533,12 +533,12 @@
   </si>
   <si>
     <t xml:space="preserve">Aklina plokštė, 
+OSB plokštė, 
+"panelė", 
+Kabelių tvarkymo panelė, 
+gipso kartono plokštė, 
 MDF plokštė, 
-Kabelių tvarkymo panelė, 
-OSB plokštė, 
-fibre board, 
-"panelė", 
-gipso kartono plokštė</t>
+fibre board</t>
   </si>
   <si>
     <t xml:space="preserve">IfcEquipmentElement</t>
@@ -571,19 +571,19 @@
     <t xml:space="preserve">Gaubtas, skirtas mechanizmams ar jų dalims apsaugoti nuo išorinio poveikio bei užtikrinti žmonių saugumą (taip pat ir nuo kontakto su elektros srove).</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryšių spinta, 
+    <t xml:space="preserve">skydinė, 
+Ryšių spinta, 
+montavimo dėžė, 
+paskirstymo skydelis, 
+elektros skydelis, 
+spintelė, 
+prietaisų dėžė, 
 sensorių dėžutė, 
-elektros spinta, 
-Ryšių skydelis, 
-skydinė, 
+saugos dėžutė, 
 Centralė, 
 kolektorių spintelė, 
-spintelė, 
-elektros skydelis, 
-montavimo dėžė, 
-saugos dėžutė, 
-prietaisų dėžė, 
-paskirstymo skydelis</t>
+Ryšių skydelis, 
+elektros spinta</t>
   </si>
   <si>
     <t xml:space="preserve">IfcJunctionBox, 
@@ -599,11 +599,11 @@
     <t xml:space="preserve">Žemosios įtampos jungiamasis komponentas, skirtas keletui kištukinių srovę naudojančių įrenginių.</t>
   </si>
   <si>
-    <t xml:space="preserve">Elektros šakotuvas ryšių sistemos įrangai, 
-elektros šakotuvas, 
-"prailgintuvas", 
+    <t xml:space="preserve">elektros šakotuvas, 
+Elektros šakotuvas ryšių sistemos įrangai, 
+Ilgintuvas, 
 Ryšių sistemos elektros šakotuvas, 
-Ilgintuvas</t>
+"prailgintuvas"</t>
   </si>
   <si>
     <t xml:space="preserve">Nepertraukiamo maitinimo šaltinis</t>
@@ -615,9 +615,9 @@
     <t xml:space="preserve">Elektros energijos stabilizavimo komponentas, užtikrinantis nenutrūkstamą energijos tiekimą.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryšiu sistemos nepertraukiamo maitinimo šaltinis, 
-UPS (angl. uninterrupted power supply), 
-Ryšių sistemos UPS</t>
+    <t xml:space="preserve">Ryšių sistemos UPS, 
+Ryšiu sistemos nepertraukiamo maitinimo šaltinis, 
+UPS (angl. uninterrupted power supply)</t>
   </si>
   <si>
     <t xml:space="preserve">IfcElectricalElement, 
@@ -642,9 +642,9 @@
     <t xml:space="preserve">Judančios membranos principu veikiantis akustinis prietaisas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pastato įgarsinimo sistemos garsiakalbis, 
-Garso kolonėlė, 
-sirena</t>
+    <t xml:space="preserve">Garso kolonėlė, 
+sirena, 
+Pastato įgarsinimo sistemos garsiakalbis</t>
   </si>
   <si>
     <t xml:space="preserve">IfcAudioVisualAppliance, 
@@ -691,37 +691,37 @@
   </si>
   <si>
     <t xml:space="preserve">Pastato įgarsinimo sistemos prietaisų dėžė, 
-elektros spinta, 
+skydinė, 
+spintelė, 
+montavimo dėžė, 
+paskirstymo skydelis, 
+elektros skydelis, 
+Pastato įgarsinimo sistemos spinta, 
+prietaisų dėžė, 
 sensorių dėžutė, 
-Pastato įgarsinimo sistemos spinta, 
-skydinė, 
+saugos dėžutė, 
 Centralė, 
 kolektorių spintelė, 
 Pastato įgarsinimo valdymo sistemos įrenginių spinta, 
-spintelė, 
-elektros skydelis, 
-montavimo dėžė, 
-saugos dėžutė, 
-prietaisų dėžė, 
-paskirstymo skydelis</t>
+elektros spinta</t>
   </si>
   <si>
     <t xml:space="preserve">Pastato įgarsinimo sistemos elektros skirstytuvas</t>
   </si>
   <si>
-    <t xml:space="preserve">Pastato įgarsinimo sistemos sistemos elektros šakotuvas, 
-Elektros šakotuvas pastato įgarsinimo sistemos įrangai, 
+    <t xml:space="preserve">Elektros šakotuvas pastato įgarsinimo sistemos įrangai, 
 elektros šakotuvas, 
-"prailgintuvas", 
-Ilgintuvas</t>
+Pastato įgarsinimo sistemos sistemos elektros šakotuvas, 
+Ilgintuvas, 
+"prailgintuvas"</t>
   </si>
   <si>
     <t xml:space="preserve">Pastato įgarsinimo sistema. Nepertraukiamo maitinimo šaltinis</t>
   </si>
   <si>
-    <t xml:space="preserve">Pastato įgarsinimo sistemos UPS, 
+    <t xml:space="preserve">Pastato įgarsinimo sistemos nepertraukiamo maitinimo šaltinis, 
 UPS (angl. uninterrupted power supply), 
-Pastato įgarsinimo sistemos nepertraukiamo maitinimo šaltinis</t>
+Pastato įgarsinimo sistemos UPS</t>
   </si>
 </sst>
 </file>
@@ -1247,17 +1247,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T531"/>
+  <dimension ref="A1:T511"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A531" activeCellId="0" sqref="4:531"/>
+      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10"/>
@@ -1316,9 +1316,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="124.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1335,16 +1333,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1389,7 +1381,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="5" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1455,7 +1447,7 @@
       </c>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="6" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1479,7 +1471,7 @@
       </c>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="7" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1503,7 +1495,7 @@
       </c>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="8" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1527,7 +1519,7 @@
       </c>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="9" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1551,7 +1543,7 @@
       </c>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="10" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1575,7 +1567,7 @@
       </c>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="11" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1599,7 +1591,7 @@
       </c>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1623,7 +1615,7 @@
       </c>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1647,7 +1639,7 @@
       </c>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1671,7 +1663,7 @@
       </c>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1695,7 +1687,7 @@
       </c>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1719,7 +1711,7 @@
       </c>
       <c r="T16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1743,7 +1735,7 @@
       </c>
       <c r="T17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1761,7 +1753,7 @@
       </c>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1779,7 +1771,7 @@
       </c>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1794,7 +1786,7 @@
       <c r="L20" s="5"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
@@ -1838,7 +1830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="22" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1862,7 +1854,7 @@
       </c>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="23" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1886,7 +1878,7 @@
       </c>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1910,7 +1902,7 @@
       </c>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="25" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1934,7 +1926,7 @@
       </c>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="26" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1958,7 +1950,7 @@
       </c>
       <c r="T26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1982,7 +1974,7 @@
       </c>
       <c r="T27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="28" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2006,7 +1998,7 @@
       </c>
       <c r="T28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="29" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2030,7 +2022,7 @@
       </c>
       <c r="T29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="30" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2054,7 +2046,7 @@
       </c>
       <c r="T30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2078,7 +2070,7 @@
       </c>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2102,7 +2094,7 @@
       </c>
       <c r="T32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2126,7 +2118,7 @@
       </c>
       <c r="T33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2150,7 +2142,7 @@
       </c>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2174,7 +2166,7 @@
       </c>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2198,7 +2190,7 @@
       </c>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2216,7 +2208,7 @@
       </c>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2231,7 +2223,7 @@
       <c r="L38" s="5"/>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
@@ -2273,7 +2265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="40" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2297,7 +2289,7 @@
       </c>
       <c r="T40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="41" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2321,7 +2313,7 @@
       </c>
       <c r="T41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="42" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2345,7 +2337,7 @@
       </c>
       <c r="T42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="43" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2369,7 +2361,7 @@
       </c>
       <c r="T43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="44" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2393,7 +2385,7 @@
       </c>
       <c r="T44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2417,7 +2409,7 @@
       </c>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="46" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2441,7 +2433,7 @@
       </c>
       <c r="T46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="47" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2465,7 +2457,7 @@
       </c>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="48" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2489,7 +2481,7 @@
       </c>
       <c r="T48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="49" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2513,7 +2505,7 @@
       </c>
       <c r="T49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2537,7 +2529,7 @@
       </c>
       <c r="T50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2561,7 +2553,7 @@
       </c>
       <c r="T51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2585,7 +2577,7 @@
       </c>
       <c r="T52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="53" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2609,7 +2601,7 @@
       </c>
       <c r="T53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="54" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2633,7 +2625,7 @@
       </c>
       <c r="T54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2651,7 +2643,7 @@
       </c>
       <c r="T55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2666,7 +2658,7 @@
       <c r="L56" s="5"/>
       <c r="T56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>80</v>
       </c>
@@ -2708,7 +2700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="58" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2732,7 +2724,7 @@
       </c>
       <c r="T58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="59" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2756,7 +2748,7 @@
       </c>
       <c r="T59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="60" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2780,7 +2772,7 @@
       </c>
       <c r="T60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="61" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2804,7 +2796,7 @@
       </c>
       <c r="T61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="62" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2828,7 +2820,7 @@
       </c>
       <c r="T62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2852,7 +2844,7 @@
       </c>
       <c r="T63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="64" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2876,7 +2868,7 @@
       </c>
       <c r="T64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="65" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2900,7 +2892,7 @@
       </c>
       <c r="T65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="66" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2924,7 +2916,7 @@
       </c>
       <c r="T66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="67" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2948,7 +2940,7 @@
       </c>
       <c r="T67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="68" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2972,7 +2964,7 @@
       </c>
       <c r="T68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2996,7 +2988,7 @@
       </c>
       <c r="T69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3020,7 +3012,7 @@
       </c>
       <c r="T70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="71" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3044,7 +3036,7 @@
       </c>
       <c r="T71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3068,7 +3060,7 @@
       </c>
       <c r="T72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3086,7 +3078,7 @@
       </c>
       <c r="T73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3101,7 +3093,7 @@
       <c r="L74" s="5"/>
       <c r="T74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>85</v>
       </c>
@@ -3143,7 +3135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="76" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3167,7 +3159,7 @@
       </c>
       <c r="T76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="77" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3191,7 +3183,7 @@
       </c>
       <c r="T77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="78" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3215,7 +3207,7 @@
       </c>
       <c r="T78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="79" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3239,7 +3231,7 @@
       </c>
       <c r="T79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="80" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3263,7 +3255,7 @@
       </c>
       <c r="T80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="81" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3287,7 +3279,7 @@
       </c>
       <c r="T81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="82" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3311,7 +3303,7 @@
       </c>
       <c r="T82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="83" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3335,7 +3327,7 @@
       </c>
       <c r="T83" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3359,7 +3351,7 @@
       </c>
       <c r="T84" s="9"/>
     </row>
-    <row r="85" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3383,7 +3375,7 @@
       </c>
       <c r="T85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="86" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3407,7 +3399,7 @@
       </c>
       <c r="T86" s="9"/>
     </row>
-    <row r="87" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="87" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3431,7 +3423,7 @@
       </c>
       <c r="T87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3449,7 +3441,7 @@
       </c>
       <c r="T88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3464,7 +3456,7 @@
       <c r="L89" s="5"/>
       <c r="T89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
@@ -3506,7 +3498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="91" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3530,7 +3522,7 @@
       </c>
       <c r="T91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="92" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3554,7 +3546,7 @@
       </c>
       <c r="T92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="93" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3578,7 +3570,7 @@
       </c>
       <c r="T93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="94" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3602,7 +3594,7 @@
       </c>
       <c r="T94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="95" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3626,7 +3618,7 @@
       </c>
       <c r="T95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3650,7 +3642,7 @@
       </c>
       <c r="T96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3674,7 +3666,7 @@
       </c>
       <c r="T97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="98" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3698,7 +3690,7 @@
       </c>
       <c r="T98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="99" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3722,7 +3714,7 @@
       </c>
       <c r="T99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="100" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3746,7 +3738,7 @@
       </c>
       <c r="T100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3770,7 +3762,7 @@
       </c>
       <c r="T101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3794,7 +3786,7 @@
       </c>
       <c r="T102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3818,7 +3810,7 @@
       </c>
       <c r="T103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="104" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3842,7 +3834,7 @@
       </c>
       <c r="T104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="105" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3866,7 +3858,7 @@
       </c>
       <c r="T105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="106" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3890,7 +3882,7 @@
       </c>
       <c r="T106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3908,7 +3900,7 @@
       </c>
       <c r="T107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3923,7 +3915,7 @@
       <c r="L108" s="5"/>
       <c r="T108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>95</v>
       </c>
@@ -3965,7 +3957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="110" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3989,7 +3981,7 @@
       </c>
       <c r="T110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="111" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4013,7 +4005,7 @@
       </c>
       <c r="T111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4037,7 +4029,7 @@
       </c>
       <c r="T112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="113" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4061,7 +4053,7 @@
       </c>
       <c r="T113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="114" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4085,7 +4077,7 @@
       </c>
       <c r="T114" s="9"/>
     </row>
-    <row r="115" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4109,7 +4101,7 @@
       </c>
       <c r="T115" s="9"/>
     </row>
-    <row r="116" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4133,7 +4125,7 @@
       </c>
       <c r="T116" s="9"/>
     </row>
-    <row r="117" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="117" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4157,7 +4149,7 @@
       </c>
       <c r="T117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="118" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4181,7 +4173,7 @@
       </c>
       <c r="T118" s="9"/>
     </row>
-    <row r="119" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="119" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4205,7 +4197,7 @@
       </c>
       <c r="T119" s="9"/>
     </row>
-    <row r="120" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="120" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4229,7 +4221,7 @@
       </c>
       <c r="T120" s="9"/>
     </row>
-    <row r="121" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4253,7 +4245,7 @@
       </c>
       <c r="T121" s="9"/>
     </row>
-    <row r="122" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4277,7 +4269,7 @@
       </c>
       <c r="T122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4301,7 +4293,7 @@
       </c>
       <c r="T123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="124" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="T124" s="9"/>
     </row>
-    <row r="125" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4349,7 +4341,7 @@
       </c>
       <c r="T125" s="9"/>
     </row>
-    <row r="126" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4367,7 +4359,7 @@
       </c>
       <c r="T126" s="9"/>
     </row>
-    <row r="127" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4382,7 +4374,7 @@
       <c r="L127" s="5"/>
       <c r="T127" s="9"/>
     </row>
-    <row r="128" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>100</v>
       </c>
@@ -4424,7 +4416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="129" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4448,7 +4440,7 @@
       </c>
       <c r="T129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="130" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4472,7 +4464,7 @@
       </c>
       <c r="T130" s="9"/>
     </row>
-    <row r="131" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="131" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4496,7 +4488,7 @@
       </c>
       <c r="T131" s="9"/>
     </row>
-    <row r="132" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="132" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4520,7 +4512,7 @@
       </c>
       <c r="T132" s="9"/>
     </row>
-    <row r="133" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="133" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4544,7 +4536,7 @@
       </c>
       <c r="T133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4568,7 +4560,7 @@
       </c>
       <c r="T134" s="9"/>
     </row>
-    <row r="135" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="135" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4592,7 +4584,7 @@
       </c>
       <c r="T135" s="9"/>
     </row>
-    <row r="136" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="136" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4616,7 +4608,7 @@
       </c>
       <c r="T136" s="9"/>
     </row>
-    <row r="137" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="137" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4640,7 +4632,7 @@
       </c>
       <c r="T137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="138" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4664,7 +4656,7 @@
       </c>
       <c r="T138" s="9"/>
     </row>
-    <row r="139" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="139" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4688,7 +4680,7 @@
       </c>
       <c r="T139" s="9"/>
     </row>
-    <row r="140" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4712,7 +4704,7 @@
       </c>
       <c r="T140" s="9"/>
     </row>
-    <row r="141" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4736,7 +4728,7 @@
       </c>
       <c r="T141" s="9"/>
     </row>
-    <row r="142" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4760,7 +4752,7 @@
       </c>
       <c r="T142" s="9"/>
     </row>
-    <row r="143" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="143" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4784,7 +4776,7 @@
       </c>
       <c r="T143" s="9"/>
     </row>
-    <row r="144" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="144" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4808,7 +4800,7 @@
       </c>
       <c r="T144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4826,7 +4818,7 @@
       </c>
       <c r="T145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4841,7 +4833,7 @@
       <c r="L146" s="5"/>
       <c r="T146" s="9"/>
     </row>
-    <row r="147" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>105</v>
       </c>
@@ -4883,7 +4875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="148" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4907,7 +4899,7 @@
       </c>
       <c r="T148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="149" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4931,7 +4923,7 @@
       </c>
       <c r="T149" s="9"/>
     </row>
-    <row r="150" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="150" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4955,7 +4947,7 @@
       </c>
       <c r="T150" s="9"/>
     </row>
-    <row r="151" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="151" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4979,7 +4971,7 @@
       </c>
       <c r="T151" s="9"/>
     </row>
-    <row r="152" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="152" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5003,7 +4995,7 @@
       </c>
       <c r="T152" s="9"/>
     </row>
-    <row r="153" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -5027,7 +5019,7 @@
       </c>
       <c r="T153" s="9"/>
     </row>
-    <row r="154" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="154" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -5051,7 +5043,7 @@
       </c>
       <c r="T154" s="9"/>
     </row>
-    <row r="155" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="155" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -5075,7 +5067,7 @@
       </c>
       <c r="T155" s="9"/>
     </row>
-    <row r="156" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="156" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -5099,7 +5091,7 @@
       </c>
       <c r="T156" s="9"/>
     </row>
-    <row r="157" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="157" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -5123,7 +5115,7 @@
       </c>
       <c r="T157" s="9"/>
     </row>
-    <row r="158" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="158" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -5147,7 +5139,7 @@
       </c>
       <c r="T158" s="9"/>
     </row>
-    <row r="159" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -5171,7 +5163,7 @@
       </c>
       <c r="T159" s="9"/>
     </row>
-    <row r="160" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -5195,7 +5187,7 @@
       </c>
       <c r="T160" s="9"/>
     </row>
-    <row r="161" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="161" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5219,7 +5211,7 @@
       </c>
       <c r="T161" s="9"/>
     </row>
-    <row r="162" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="162" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5243,7 +5235,7 @@
       </c>
       <c r="T162" s="9"/>
     </row>
-    <row r="163" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="163" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5267,7 +5259,7 @@
       </c>
       <c r="T163" s="9"/>
     </row>
-    <row r="164" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5285,7 +5277,7 @@
       </c>
       <c r="T164" s="9"/>
     </row>
-    <row r="165" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5300,7 +5292,7 @@
       <c r="L165" s="5"/>
       <c r="T165" s="9"/>
     </row>
-    <row r="166" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>110</v>
       </c>
@@ -5342,7 +5334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="167" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5366,7 +5358,7 @@
       </c>
       <c r="T167" s="9"/>
     </row>
-    <row r="168" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="168" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5390,7 +5382,7 @@
       </c>
       <c r="T168" s="9"/>
     </row>
-    <row r="169" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="169" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5414,7 +5406,7 @@
       </c>
       <c r="T169" s="9"/>
     </row>
-    <row r="170" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="170" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5438,7 +5430,7 @@
       </c>
       <c r="T170" s="9"/>
     </row>
-    <row r="171" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="171" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5462,7 +5454,7 @@
       </c>
       <c r="T171" s="9"/>
     </row>
-    <row r="172" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="172" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5486,7 +5478,7 @@
       </c>
       <c r="T172" s="9"/>
     </row>
-    <row r="173" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="173" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5510,7 +5502,7 @@
       </c>
       <c r="T173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="174" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5534,7 +5526,7 @@
       </c>
       <c r="T174" s="9"/>
     </row>
-    <row r="175" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5558,7 +5550,7 @@
       </c>
       <c r="T175" s="9"/>
     </row>
-    <row r="176" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5582,7 +5574,7 @@
       </c>
       <c r="T176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5606,7 +5598,7 @@
       </c>
       <c r="T177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="178" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5630,7 +5622,7 @@
       </c>
       <c r="T178" s="9"/>
     </row>
-    <row r="179" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="179" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5654,7 +5646,7 @@
       </c>
       <c r="T179" s="9"/>
     </row>
-    <row r="180" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5672,7 +5664,7 @@
       </c>
       <c r="T180" s="9"/>
     </row>
-    <row r="181" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5690,7 +5682,7 @@
       </c>
       <c r="T181" s="9"/>
     </row>
-    <row r="182" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -5705,7 +5697,7 @@
       <c r="L182" s="5"/>
       <c r="T182" s="9"/>
     </row>
-    <row r="183" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A183" s="4" t="s">
         <v>115</v>
       </c>
@@ -5747,7 +5739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="184" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5771,7 +5763,7 @@
       </c>
       <c r="T184" s="9"/>
     </row>
-    <row r="185" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="185" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5795,7 +5787,7 @@
       </c>
       <c r="T185" s="9"/>
     </row>
-    <row r="186" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="186" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5819,7 +5811,7 @@
       </c>
       <c r="T186" s="9"/>
     </row>
-    <row r="187" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="187" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5843,7 +5835,7 @@
       </c>
       <c r="T187" s="9"/>
     </row>
-    <row r="188" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="188" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5867,7 +5859,7 @@
       </c>
       <c r="T188" s="9"/>
     </row>
-    <row r="189" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="189" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5891,7 +5883,7 @@
       </c>
       <c r="T189" s="9"/>
     </row>
-    <row r="190" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="190" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5915,7 +5907,7 @@
       </c>
       <c r="T190" s="9"/>
     </row>
-    <row r="191" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5939,7 +5931,7 @@
       </c>
       <c r="T191" s="9"/>
     </row>
-    <row r="192" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5963,7 +5955,7 @@
       </c>
       <c r="T192" s="9"/>
     </row>
-    <row r="193" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -5987,7 +5979,7 @@
       </c>
       <c r="T193" s="9"/>
     </row>
-    <row r="194" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -6011,7 +6003,7 @@
       </c>
       <c r="T194" s="9"/>
     </row>
-    <row r="195" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="195" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -6035,7 +6027,7 @@
       </c>
       <c r="T195" s="9"/>
     </row>
-    <row r="196" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -6059,7 +6051,7 @@
       </c>
       <c r="T196" s="9"/>
     </row>
-    <row r="197" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -6083,7 +6075,7 @@
       </c>
       <c r="T197" s="9"/>
     </row>
-    <row r="198" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -6107,7 +6099,7 @@
       </c>
       <c r="T198" s="9"/>
     </row>
-    <row r="199" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -6125,7 +6117,7 @@
       </c>
       <c r="T199" s="9"/>
     </row>
-    <row r="200" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -6143,7 +6135,7 @@
       </c>
       <c r="T200" s="9"/>
     </row>
-    <row r="201" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -6158,7 +6150,7 @@
       <c r="L201" s="5"/>
       <c r="T201" s="9"/>
     </row>
-    <row r="202" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A202" s="4" t="s">
         <v>125</v>
       </c>
@@ -6200,7 +6192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="203" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6224,7 +6216,7 @@
       </c>
       <c r="T203" s="9"/>
     </row>
-    <row r="204" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="204" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -6248,7 +6240,7 @@
       </c>
       <c r="T204" s="9"/>
     </row>
-    <row r="205" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="205" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -6272,7 +6264,7 @@
       </c>
       <c r="T205" s="9"/>
     </row>
-    <row r="206" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="206" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -6296,7 +6288,7 @@
       </c>
       <c r="T206" s="9"/>
     </row>
-    <row r="207" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="207" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -6320,7 +6312,7 @@
       </c>
       <c r="T207" s="9"/>
     </row>
-    <row r="208" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="208" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -6344,7 +6336,7 @@
       </c>
       <c r="T208" s="9"/>
     </row>
-    <row r="209" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="209" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -6368,7 +6360,7 @@
       </c>
       <c r="T209" s="9"/>
     </row>
-    <row r="210" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="210" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -6392,7 +6384,7 @@
       </c>
       <c r="T210" s="9"/>
     </row>
-    <row r="211" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -6416,7 +6408,7 @@
       </c>
       <c r="T211" s="9"/>
     </row>
-    <row r="212" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -6440,7 +6432,7 @@
       </c>
       <c r="T212" s="9"/>
     </row>
-    <row r="213" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="213" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -6464,7 +6456,7 @@
       </c>
       <c r="T213" s="9"/>
     </row>
-    <row r="214" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="214" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -6488,7 +6480,7 @@
       </c>
       <c r="T214" s="9"/>
     </row>
-    <row r="215" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="215" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -6512,7 +6504,7 @@
       </c>
       <c r="T215" s="9"/>
     </row>
-    <row r="216" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -6536,7 +6528,7 @@
       </c>
       <c r="T216" s="9"/>
     </row>
-    <row r="217" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="217" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -6560,7 +6552,7 @@
       </c>
       <c r="T217" s="9"/>
     </row>
-    <row r="218" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -6578,7 +6570,7 @@
       </c>
       <c r="T218" s="9"/>
     </row>
-    <row r="219" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -6596,7 +6588,7 @@
       </c>
       <c r="T219" s="9"/>
     </row>
-    <row r="220" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -6611,7 +6603,7 @@
       <c r="L220" s="5"/>
       <c r="T220" s="9"/>
     </row>
-    <row r="221" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A221" s="4" t="s">
         <v>128</v>
       </c>
@@ -6653,7 +6645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="222" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -6677,7 +6669,7 @@
       </c>
       <c r="T222" s="9"/>
     </row>
-    <row r="223" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="223" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -6701,7 +6693,7 @@
       </c>
       <c r="T223" s="9"/>
     </row>
-    <row r="224" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="224" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -6725,7 +6717,7 @@
       </c>
       <c r="T224" s="9"/>
     </row>
-    <row r="225" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="225" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -6749,7 +6741,7 @@
       </c>
       <c r="T225" s="9"/>
     </row>
-    <row r="226" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="226" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -6773,7 +6765,7 @@
       </c>
       <c r="T226" s="9"/>
     </row>
-    <row r="227" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -6797,7 +6789,7 @@
       </c>
       <c r="T227" s="9"/>
     </row>
-    <row r="228" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="228" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -6821,7 +6813,7 @@
       </c>
       <c r="T228" s="9"/>
     </row>
-    <row r="229" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="229" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -6845,7 +6837,7 @@
       </c>
       <c r="T229" s="9"/>
     </row>
-    <row r="230" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="230" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6869,7 +6861,7 @@
       </c>
       <c r="T230" s="9"/>
     </row>
-    <row r="231" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="231" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6893,7 +6885,7 @@
       </c>
       <c r="T231" s="9"/>
     </row>
-    <row r="232" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="232" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -6917,7 +6909,7 @@
       </c>
       <c r="T232" s="9"/>
     </row>
-    <row r="233" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -6941,7 +6933,7 @@
       </c>
       <c r="T233" s="9"/>
     </row>
-    <row r="234" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -6965,7 +6957,7 @@
       </c>
       <c r="T234" s="9"/>
     </row>
-    <row r="235" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="235" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -6989,7 +6981,7 @@
       </c>
       <c r="T235" s="9"/>
     </row>
-    <row r="236" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="236" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -7013,7 +7005,7 @@
       </c>
       <c r="T236" s="9"/>
     </row>
-    <row r="237" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="237" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -7037,7 +7029,7 @@
       </c>
       <c r="T237" s="9"/>
     </row>
-    <row r="238" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -7061,7 +7053,7 @@
       </c>
       <c r="T238" s="9"/>
     </row>
-    <row r="239" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="239" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -7085,7 +7077,7 @@
       </c>
       <c r="T239" s="9"/>
     </row>
-    <row r="240" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -7103,7 +7095,7 @@
       </c>
       <c r="T240" s="9"/>
     </row>
-    <row r="241" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -7121,7 +7113,7 @@
       </c>
       <c r="T241" s="9"/>
     </row>
-    <row r="242" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -7136,7 +7128,7 @@
       <c r="L242" s="5"/>
       <c r="T242" s="9"/>
     </row>
-    <row r="243" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A243" s="4" t="s">
         <v>132</v>
       </c>
@@ -7178,7 +7170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="244" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -7202,7 +7194,7 @@
       </c>
       <c r="T244" s="9"/>
     </row>
-    <row r="245" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="245" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -7226,7 +7218,7 @@
       </c>
       <c r="T245" s="9"/>
     </row>
-    <row r="246" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="246" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -7250,7 +7242,7 @@
       </c>
       <c r="T246" s="9"/>
     </row>
-    <row r="247" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="247" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A247" s="4"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -7274,7 +7266,7 @@
       </c>
       <c r="T247" s="9"/>
     </row>
-    <row r="248" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="248" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -7298,7 +7290,7 @@
       </c>
       <c r="T248" s="9"/>
     </row>
-    <row r="249" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="249" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -7322,7 +7314,7 @@
       </c>
       <c r="T249" s="9"/>
     </row>
-    <row r="250" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="250" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -7346,7 +7338,7 @@
       </c>
       <c r="T250" s="9"/>
     </row>
-    <row r="251" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="251" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -7370,7 +7362,7 @@
       </c>
       <c r="T251" s="9"/>
     </row>
-    <row r="252" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -7394,7 +7386,7 @@
       </c>
       <c r="T252" s="9"/>
     </row>
-    <row r="253" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -7418,7 +7410,7 @@
       </c>
       <c r="T253" s="9"/>
     </row>
-    <row r="254" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -7442,7 +7434,7 @@
       </c>
       <c r="T254" s="9"/>
     </row>
-    <row r="255" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="255" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -7466,7 +7458,7 @@
       </c>
       <c r="T255" s="9"/>
     </row>
-    <row r="256" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="256" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -7490,7 +7482,7 @@
       </c>
       <c r="T256" s="9"/>
     </row>
-    <row r="257" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -7508,7 +7500,7 @@
       </c>
       <c r="T257" s="9"/>
     </row>
-    <row r="258" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -7526,7 +7518,7 @@
       </c>
       <c r="T258" s="9"/>
     </row>
-    <row r="259" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A259" s="4"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -7541,7 +7533,7 @@
       <c r="L259" s="5"/>
       <c r="T259" s="9"/>
     </row>
-    <row r="260" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A260" s="4" t="s">
         <v>137</v>
       </c>
@@ -7583,7 +7575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="261" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7607,7 +7599,7 @@
       </c>
       <c r="T261" s="9"/>
     </row>
-    <row r="262" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="262" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -7631,7 +7623,7 @@
       </c>
       <c r="T262" s="9"/>
     </row>
-    <row r="263" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="263" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -7655,7 +7647,7 @@
       </c>
       <c r="T263" s="9"/>
     </row>
-    <row r="264" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="264" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -7679,7 +7671,7 @@
       </c>
       <c r="T264" s="9"/>
     </row>
-    <row r="265" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="265" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -7703,7 +7695,7 @@
       </c>
       <c r="T265" s="9"/>
     </row>
-    <row r="266" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -7727,7 +7719,7 @@
       </c>
       <c r="T266" s="9"/>
     </row>
-    <row r="267" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -7751,7 +7743,7 @@
       </c>
       <c r="T267" s="9"/>
     </row>
-    <row r="268" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="268" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -7775,7 +7767,7 @@
       </c>
       <c r="T268" s="9"/>
     </row>
-    <row r="269" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="269" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -7799,7 +7791,7 @@
       </c>
       <c r="T269" s="9"/>
     </row>
-    <row r="270" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="270" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -7823,7 +7815,7 @@
       </c>
       <c r="T270" s="9"/>
     </row>
-    <row r="271" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -7847,7 +7839,7 @@
       </c>
       <c r="T271" s="9"/>
     </row>
-    <row r="272" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="272" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -7871,7 +7863,7 @@
       </c>
       <c r="T272" s="9"/>
     </row>
-    <row r="273" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -7889,7 +7881,7 @@
       </c>
       <c r="T273" s="9"/>
     </row>
-    <row r="274" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -7907,7 +7899,7 @@
       </c>
       <c r="T274" s="9"/>
     </row>
-    <row r="275" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -7922,7 +7914,7 @@
       <c r="L275" s="5"/>
       <c r="T275" s="9"/>
     </row>
-    <row r="276" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A276" s="4" t="s">
         <v>142</v>
       </c>
@@ -7964,7 +7956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="277" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -7988,7 +7980,7 @@
       </c>
       <c r="T277" s="9"/>
     </row>
-    <row r="278" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="278" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -8012,7 +8004,7 @@
       </c>
       <c r="T278" s="9"/>
     </row>
-    <row r="279" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="279" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -8036,7 +8028,7 @@
       </c>
       <c r="T279" s="9"/>
     </row>
-    <row r="280" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="280" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -8060,7 +8052,7 @@
       </c>
       <c r="T280" s="9"/>
     </row>
-    <row r="281" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="281" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -8084,7 +8076,7 @@
       </c>
       <c r="T281" s="9"/>
     </row>
-    <row r="282" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -8108,7 +8100,7 @@
       </c>
       <c r="T282" s="9"/>
     </row>
-    <row r="283" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -8132,7 +8124,7 @@
       </c>
       <c r="T283" s="9"/>
     </row>
-    <row r="284" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="284" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -8156,7 +8148,7 @@
       </c>
       <c r="T284" s="9"/>
     </row>
-    <row r="285" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="285" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -8180,7 +8172,7 @@
       </c>
       <c r="T285" s="9"/>
     </row>
-    <row r="286" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="286" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -8204,7 +8196,7 @@
       </c>
       <c r="T286" s="9"/>
     </row>
-    <row r="287" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -8228,7 +8220,7 @@
       </c>
       <c r="T287" s="9"/>
     </row>
-    <row r="288" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="288" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -8252,7 +8244,7 @@
       </c>
       <c r="T288" s="9"/>
     </row>
-    <row r="289" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -8270,7 +8262,7 @@
       </c>
       <c r="T289" s="9"/>
     </row>
-    <row r="290" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8288,7 +8280,7 @@
       </c>
       <c r="T290" s="9"/>
     </row>
-    <row r="291" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -8303,7 +8295,7 @@
       <c r="L291" s="5"/>
       <c r="T291" s="9"/>
     </row>
-    <row r="292" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A292" s="4" t="s">
         <v>147</v>
       </c>
@@ -8345,7 +8337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="293" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -8369,7 +8361,7 @@
       </c>
       <c r="T293" s="9"/>
     </row>
-    <row r="294" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -8393,7 +8385,7 @@
       </c>
       <c r="T294" s="9"/>
     </row>
-    <row r="295" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -8417,7 +8409,7 @@
       </c>
       <c r="T295" s="9"/>
     </row>
-    <row r="296" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -8441,7 +8433,7 @@
       </c>
       <c r="T296" s="9"/>
     </row>
-    <row r="297" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="297" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -8465,7 +8457,7 @@
       </c>
       <c r="T297" s="9"/>
     </row>
-    <row r="298" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -8489,7 +8481,7 @@
       </c>
       <c r="T298" s="9"/>
     </row>
-    <row r="299" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="299" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -8513,7 +8505,7 @@
       </c>
       <c r="T299" s="9"/>
     </row>
-    <row r="300" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -8531,7 +8523,7 @@
       </c>
       <c r="T300" s="9"/>
     </row>
-    <row r="301" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -8549,7 +8541,7 @@
       </c>
       <c r="T301" s="9"/>
     </row>
-    <row r="302" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -8564,7 +8556,7 @@
       <c r="L302" s="5"/>
       <c r="T302" s="9"/>
     </row>
-    <row r="303" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A303" s="4" t="s">
         <v>153</v>
       </c>
@@ -8606,7 +8598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="304" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -8630,7 +8622,7 @@
       </c>
       <c r="T304" s="9"/>
     </row>
-    <row r="305" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="305" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -8654,7 +8646,7 @@
       </c>
       <c r="T305" s="9"/>
     </row>
-    <row r="306" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="306" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -8678,7 +8670,7 @@
       </c>
       <c r="T306" s="9"/>
     </row>
-    <row r="307" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="307" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -8702,7 +8694,7 @@
       </c>
       <c r="T307" s="9"/>
     </row>
-    <row r="308" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="308" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -8726,7 +8718,7 @@
       </c>
       <c r="T308" s="9"/>
     </row>
-    <row r="309" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -8750,7 +8742,7 @@
       </c>
       <c r="T309" s="9"/>
     </row>
-    <row r="310" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="310" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -8774,7 +8766,7 @@
       </c>
       <c r="T310" s="9"/>
     </row>
-    <row r="311" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="311" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -8798,7 +8790,7 @@
       </c>
       <c r="T311" s="9"/>
     </row>
-    <row r="312" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="312" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -8822,7 +8814,7 @@
       </c>
       <c r="T312" s="9"/>
     </row>
-    <row r="313" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="313" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -8846,7 +8838,7 @@
       </c>
       <c r="T313" s="9"/>
     </row>
-    <row r="314" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="314" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -8870,7 +8862,7 @@
       </c>
       <c r="T314" s="9"/>
     </row>
-    <row r="315" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -8894,7 +8886,7 @@
       </c>
       <c r="T315" s="9"/>
     </row>
-    <row r="316" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -8918,7 +8910,7 @@
       </c>
       <c r="T316" s="9"/>
     </row>
-    <row r="317" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="317" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -8942,7 +8934,7 @@
       </c>
       <c r="T317" s="9"/>
     </row>
-    <row r="318" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="318" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -8966,7 +8958,7 @@
       </c>
       <c r="T318" s="9"/>
     </row>
-    <row r="319" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="319" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -8990,7 +8982,7 @@
       </c>
       <c r="T319" s="9"/>
     </row>
-    <row r="320" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -9014,7 +9006,7 @@
       </c>
       <c r="T320" s="9"/>
     </row>
-    <row r="321" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="321" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -9038,7 +9030,7 @@
       </c>
       <c r="T321" s="9"/>
     </row>
-    <row r="322" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -9056,7 +9048,7 @@
       </c>
       <c r="T322" s="9"/>
     </row>
-    <row r="323" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -9074,7 +9066,7 @@
       </c>
       <c r="T323" s="9"/>
     </row>
-    <row r="324" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -9089,7 +9081,7 @@
       <c r="L324" s="5"/>
       <c r="T324" s="9"/>
     </row>
-    <row r="325" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A325" s="4" t="s">
         <v>158</v>
       </c>
@@ -9131,7 +9123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="326" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -9155,7 +9147,7 @@
       </c>
       <c r="T326" s="9"/>
     </row>
-    <row r="327" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="327" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -9179,7 +9171,7 @@
       </c>
       <c r="T327" s="9"/>
     </row>
-    <row r="328" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="328" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -9203,7 +9195,7 @@
       </c>
       <c r="T328" s="9"/>
     </row>
-    <row r="329" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="329" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -9227,7 +9219,7 @@
       </c>
       <c r="T329" s="9"/>
     </row>
-    <row r="330" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="330" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -9251,7 +9243,7 @@
       </c>
       <c r="T330" s="9"/>
     </row>
-    <row r="331" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -9275,7 +9267,7 @@
       </c>
       <c r="T331" s="9"/>
     </row>
-    <row r="332" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="332" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -9299,7 +9291,7 @@
       </c>
       <c r="T332" s="9"/>
     </row>
-    <row r="333" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="333" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -9323,7 +9315,7 @@
       </c>
       <c r="T333" s="9"/>
     </row>
-    <row r="334" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="334" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -9347,7 +9339,7 @@
       </c>
       <c r="T334" s="9"/>
     </row>
-    <row r="335" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="335" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -9371,7 +9363,7 @@
       </c>
       <c r="T335" s="9"/>
     </row>
-    <row r="336" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="336" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -9395,7 +9387,7 @@
       </c>
       <c r="T336" s="9"/>
     </row>
-    <row r="337" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -9419,7 +9411,7 @@
       </c>
       <c r="T337" s="9"/>
     </row>
-    <row r="338" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -9443,7 +9435,7 @@
       </c>
       <c r="T338" s="9"/>
     </row>
-    <row r="339" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="339" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -9467,7 +9459,7 @@
       </c>
       <c r="T339" s="9"/>
     </row>
-    <row r="340" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="340" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -9491,7 +9483,7 @@
       </c>
       <c r="T340" s="9"/>
     </row>
-    <row r="341" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="341" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -9515,7 +9507,7 @@
       </c>
       <c r="T341" s="9"/>
     </row>
-    <row r="342" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -9539,7 +9531,7 @@
       </c>
       <c r="T342" s="9"/>
     </row>
-    <row r="343" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="343" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -9563,7 +9555,7 @@
       </c>
       <c r="T343" s="9"/>
     </row>
-    <row r="344" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -9581,7 +9573,7 @@
       </c>
       <c r="T344" s="9"/>
     </row>
-    <row r="345" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -9599,7 +9591,7 @@
       </c>
       <c r="T345" s="9"/>
     </row>
-    <row r="346" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -9614,7 +9606,7 @@
       <c r="L346" s="5"/>
       <c r="T346" s="9"/>
     </row>
-    <row r="347" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A347" s="4" t="s">
         <v>164</v>
       </c>
@@ -9656,7 +9648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="348" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -9680,7 +9672,7 @@
       </c>
       <c r="T348" s="9"/>
     </row>
-    <row r="349" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="349" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -9704,7 +9696,7 @@
       </c>
       <c r="T349" s="9"/>
     </row>
-    <row r="350" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="350" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -9728,7 +9720,7 @@
       </c>
       <c r="T350" s="9"/>
     </row>
-    <row r="351" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="351" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -9752,7 +9744,7 @@
       </c>
       <c r="T351" s="9"/>
     </row>
-    <row r="352" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="352" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -9776,7 +9768,7 @@
       </c>
       <c r="T352" s="9"/>
     </row>
-    <row r="353" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -9800,7 +9792,7 @@
       </c>
       <c r="T353" s="9"/>
     </row>
-    <row r="354" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="354" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -9824,7 +9816,7 @@
       </c>
       <c r="T354" s="9"/>
     </row>
-    <row r="355" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="355" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -9848,7 +9840,7 @@
       </c>
       <c r="T355" s="9"/>
     </row>
-    <row r="356" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="356" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -9872,7 +9864,7 @@
       </c>
       <c r="T356" s="9"/>
     </row>
-    <row r="357" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="357" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -9896,7 +9888,7 @@
       </c>
       <c r="T357" s="9"/>
     </row>
-    <row r="358" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="358" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -9920,7 +9912,7 @@
       </c>
       <c r="T358" s="9"/>
     </row>
-    <row r="359" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -9944,7 +9936,7 @@
       </c>
       <c r="T359" s="9"/>
     </row>
-    <row r="360" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -9968,7 +9960,7 @@
       </c>
       <c r="T360" s="9"/>
     </row>
-    <row r="361" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="361" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -9992,7 +9984,7 @@
       </c>
       <c r="T361" s="9"/>
     </row>
-    <row r="362" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="362" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -10016,7 +10008,7 @@
       </c>
       <c r="T362" s="9"/>
     </row>
-    <row r="363" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="363" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -10040,7 +10032,7 @@
       </c>
       <c r="T363" s="9"/>
     </row>
-    <row r="364" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -10064,7 +10056,7 @@
       </c>
       <c r="T364" s="9"/>
     </row>
-    <row r="365" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="365" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -10088,7 +10080,7 @@
       </c>
       <c r="T365" s="9"/>
     </row>
-    <row r="366" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -10106,7 +10098,7 @@
       </c>
       <c r="T366" s="9"/>
     </row>
-    <row r="367" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -10124,7 +10116,7 @@
       </c>
       <c r="T367" s="9"/>
     </row>
-    <row r="368" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -10139,7 +10131,7 @@
       <c r="L368" s="5"/>
       <c r="T368" s="9"/>
     </row>
-    <row r="369" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A369" s="4" t="s">
         <v>168</v>
       </c>
@@ -10181,7 +10173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="370" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -10205,7 +10197,7 @@
       </c>
       <c r="T370" s="9"/>
     </row>
-    <row r="371" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="371" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -10229,7 +10221,7 @@
       </c>
       <c r="T371" s="9"/>
     </row>
-    <row r="372" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="372" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -10253,7 +10245,7 @@
       </c>
       <c r="T372" s="9"/>
     </row>
-    <row r="373" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="373" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -10277,7 +10269,7 @@
       </c>
       <c r="T373" s="9"/>
     </row>
-    <row r="374" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="374" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -10301,7 +10293,7 @@
       </c>
       <c r="T374" s="9"/>
     </row>
-    <row r="375" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -10325,7 +10317,7 @@
       </c>
       <c r="T375" s="9"/>
     </row>
-    <row r="376" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="376" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -10349,7 +10341,7 @@
       </c>
       <c r="T376" s="9"/>
     </row>
-    <row r="377" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="377" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -10373,7 +10365,7 @@
       </c>
       <c r="T377" s="9"/>
     </row>
-    <row r="378" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="378" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -10397,7 +10389,7 @@
       </c>
       <c r="T378" s="9"/>
     </row>
-    <row r="379" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="379" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10421,7 +10413,7 @@
       </c>
       <c r="T379" s="9"/>
     </row>
-    <row r="380" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="380" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -10445,7 +10437,7 @@
       </c>
       <c r="T380" s="9"/>
     </row>
-    <row r="381" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -10469,7 +10461,7 @@
       </c>
       <c r="T381" s="9"/>
     </row>
-    <row r="382" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -10493,7 +10485,7 @@
       </c>
       <c r="T382" s="9"/>
     </row>
-    <row r="383" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="383" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -10517,7 +10509,7 @@
       </c>
       <c r="T383" s="9"/>
     </row>
-    <row r="384" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="384" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -10541,7 +10533,7 @@
       </c>
       <c r="T384" s="9"/>
     </row>
-    <row r="385" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="385" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -10565,7 +10557,7 @@
       </c>
       <c r="T385" s="9"/>
     </row>
-    <row r="386" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -10583,7 +10575,7 @@
       </c>
       <c r="T386" s="9"/>
     </row>
-    <row r="387" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -10598,7 +10590,7 @@
       <c r="L387" s="5"/>
       <c r="T387" s="9"/>
     </row>
-    <row r="388" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A388" s="4" t="s">
         <v>173</v>
       </c>
@@ -10640,7 +10632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="389" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -10664,7 +10656,7 @@
       </c>
       <c r="T389" s="9"/>
     </row>
-    <row r="390" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="390" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -10688,7 +10680,7 @@
       </c>
       <c r="T390" s="9"/>
     </row>
-    <row r="391" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="391" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -10712,7 +10704,7 @@
       </c>
       <c r="T391" s="9"/>
     </row>
-    <row r="392" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="392" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -10736,7 +10728,7 @@
       </c>
       <c r="T392" s="9"/>
     </row>
-    <row r="393" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="393" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -10760,7 +10752,7 @@
       </c>
       <c r="T393" s="9"/>
     </row>
-    <row r="394" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -10784,7 +10776,7 @@
       </c>
       <c r="T394" s="9"/>
     </row>
-    <row r="395" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="395" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -10808,7 +10800,7 @@
       </c>
       <c r="T395" s="9"/>
     </row>
-    <row r="396" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="396" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -10832,7 +10824,7 @@
       </c>
       <c r="T396" s="9"/>
     </row>
-    <row r="397" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="397" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -10856,7 +10848,7 @@
       </c>
       <c r="T397" s="9"/>
     </row>
-    <row r="398" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="398" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -10880,7 +10872,7 @@
       </c>
       <c r="T398" s="9"/>
     </row>
-    <row r="399" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="399" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -10904,7 +10896,7 @@
       </c>
       <c r="T399" s="9"/>
     </row>
-    <row r="400" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -10928,7 +10920,7 @@
       </c>
       <c r="T400" s="9"/>
     </row>
-    <row r="401" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -10952,7 +10944,7 @@
       </c>
       <c r="T401" s="9"/>
     </row>
-    <row r="402" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="402" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -10976,7 +10968,7 @@
       </c>
       <c r="T402" s="9"/>
     </row>
-    <row r="403" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="403" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -11000,7 +10992,7 @@
       </c>
       <c r="T403" s="9"/>
     </row>
-    <row r="404" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="404" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -11024,7 +11016,7 @@
       </c>
       <c r="T404" s="9"/>
     </row>
-    <row r="405" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -11048,7 +11040,7 @@
       </c>
       <c r="T405" s="9"/>
     </row>
-    <row r="406" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="406" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -11072,7 +11064,7 @@
       </c>
       <c r="T406" s="9"/>
     </row>
-    <row r="407" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -11090,7 +11082,7 @@
       </c>
       <c r="T407" s="9"/>
     </row>
-    <row r="408" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -11108,7 +11100,7 @@
       </c>
       <c r="T408" s="9"/>
     </row>
-    <row r="409" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -11123,7 +11115,7 @@
       <c r="L409" s="5"/>
       <c r="T409" s="9"/>
     </row>
-    <row r="410" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A410" s="4" t="s">
         <v>181</v>
       </c>
@@ -11165,7 +11157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="411" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -11189,7 +11181,7 @@
       </c>
       <c r="T411" s="9"/>
     </row>
-    <row r="412" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="412" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -11213,7 +11205,7 @@
       </c>
       <c r="T412" s="9"/>
     </row>
-    <row r="413" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="413" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -11237,7 +11229,7 @@
       </c>
       <c r="T413" s="9"/>
     </row>
-    <row r="414" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="414" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -11261,7 +11253,7 @@
       </c>
       <c r="T414" s="9"/>
     </row>
-    <row r="415" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="415" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -11285,7 +11277,7 @@
       </c>
       <c r="T415" s="9"/>
     </row>
-    <row r="416" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="416" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -11309,7 +11301,7 @@
       </c>
       <c r="T416" s="9"/>
     </row>
-    <row r="417" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="417" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -11333,7 +11325,7 @@
       </c>
       <c r="T417" s="9"/>
     </row>
-    <row r="418" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="418" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -11357,7 +11349,7 @@
       </c>
       <c r="T418" s="9"/>
     </row>
-    <row r="419" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -11381,7 +11373,7 @@
       </c>
       <c r="T419" s="9"/>
     </row>
-    <row r="420" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -11405,7 +11397,7 @@
       </c>
       <c r="T420" s="9"/>
     </row>
-    <row r="421" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="421" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -11429,7 +11421,7 @@
       </c>
       <c r="T421" s="9"/>
     </row>
-    <row r="422" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="422" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -11453,7 +11445,7 @@
       </c>
       <c r="T422" s="9"/>
     </row>
-    <row r="423" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="423" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -11477,7 +11469,7 @@
       </c>
       <c r="T423" s="9"/>
     </row>
-    <row r="424" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -11501,7 +11493,7 @@
       </c>
       <c r="T424" s="9"/>
     </row>
-    <row r="425" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="425" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -11525,7 +11517,7 @@
       </c>
       <c r="T425" s="9"/>
     </row>
-    <row r="426" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -11543,7 +11535,7 @@
       </c>
       <c r="T426" s="9"/>
     </row>
-    <row r="427" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -11561,7 +11553,7 @@
       </c>
       <c r="T427" s="9"/>
     </row>
-    <row r="428" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -11576,7 +11568,7 @@
       <c r="L428" s="5"/>
       <c r="T428" s="9"/>
     </row>
-    <row r="429" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A429" s="4" t="s">
         <v>186</v>
       </c>
@@ -11618,7 +11610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="430" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -11642,7 +11634,7 @@
       </c>
       <c r="T430" s="9"/>
     </row>
-    <row r="431" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="431" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -11666,7 +11658,7 @@
       </c>
       <c r="T431" s="9"/>
     </row>
-    <row r="432" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="432" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -11690,7 +11682,7 @@
       </c>
       <c r="T432" s="9"/>
     </row>
-    <row r="433" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="433" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -11714,7 +11706,7 @@
       </c>
       <c r="T433" s="9"/>
     </row>
-    <row r="434" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="434" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -11738,7 +11730,7 @@
       </c>
       <c r="T434" s="9"/>
     </row>
-    <row r="435" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -11762,7 +11754,7 @@
       </c>
       <c r="T435" s="9"/>
     </row>
-    <row r="436" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="436" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -11786,7 +11778,7 @@
       </c>
       <c r="T436" s="9"/>
     </row>
-    <row r="437" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="437" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -11810,7 +11802,7 @@
       </c>
       <c r="T437" s="9"/>
     </row>
-    <row r="438" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="438" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -11834,7 +11826,7 @@
       </c>
       <c r="T438" s="9"/>
     </row>
-    <row r="439" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="439" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -11858,7 +11850,7 @@
       </c>
       <c r="T439" s="9"/>
     </row>
-    <row r="440" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="440" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -11882,7 +11874,7 @@
       </c>
       <c r="T440" s="9"/>
     </row>
-    <row r="441" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -11906,7 +11898,7 @@
       </c>
       <c r="T441" s="9"/>
     </row>
-    <row r="442" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -11930,7 +11922,7 @@
       </c>
       <c r="T442" s="9"/>
     </row>
-    <row r="443" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="443" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -11954,7 +11946,7 @@
       </c>
       <c r="T443" s="9"/>
     </row>
-    <row r="444" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="444" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -11978,7 +11970,7 @@
       </c>
       <c r="T444" s="9"/>
     </row>
-    <row r="445" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="445" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -12002,7 +11994,7 @@
       </c>
       <c r="T445" s="9"/>
     </row>
-    <row r="446" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -12026,7 +12018,7 @@
       </c>
       <c r="T446" s="9"/>
     </row>
-    <row r="447" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="447" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -12050,7 +12042,7 @@
       </c>
       <c r="T447" s="9"/>
     </row>
-    <row r="448" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -12068,7 +12060,7 @@
       </c>
       <c r="T448" s="9"/>
     </row>
-    <row r="449" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A449" s="4"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -12086,7 +12078,7 @@
       </c>
       <c r="T449" s="9"/>
     </row>
-    <row r="450" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A450" s="4"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -12101,7 +12093,7 @@
       <c r="L450" s="5"/>
       <c r="T450" s="9"/>
     </row>
-    <row r="451" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A451" s="4" t="s">
         <v>158</v>
       </c>
@@ -12143,7 +12135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="452" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A452" s="4"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -12167,7 +12159,7 @@
       </c>
       <c r="T452" s="9"/>
     </row>
-    <row r="453" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="453" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A453" s="4"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -12191,7 +12183,7 @@
       </c>
       <c r="T453" s="9"/>
     </row>
-    <row r="454" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="454" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A454" s="4"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -12215,7 +12207,7 @@
       </c>
       <c r="T454" s="9"/>
     </row>
-    <row r="455" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="455" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A455" s="4"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -12239,7 +12231,7 @@
       </c>
       <c r="T455" s="9"/>
     </row>
-    <row r="456" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="456" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A456" s="4"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -12263,7 +12255,7 @@
       </c>
       <c r="T456" s="9"/>
     </row>
-    <row r="457" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A457" s="4"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -12287,7 +12279,7 @@
       </c>
       <c r="T457" s="9"/>
     </row>
-    <row r="458" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="458" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A458" s="4"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -12311,7 +12303,7 @@
       </c>
       <c r="T458" s="9"/>
     </row>
-    <row r="459" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="459" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A459" s="4"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -12335,7 +12327,7 @@
       </c>
       <c r="T459" s="9"/>
     </row>
-    <row r="460" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="460" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A460" s="4"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -12359,7 +12351,7 @@
       </c>
       <c r="T460" s="9"/>
     </row>
-    <row r="461" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="461" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A461" s="4"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -12383,7 +12375,7 @@
       </c>
       <c r="T461" s="9"/>
     </row>
-    <row r="462" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="462" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A462" s="4"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -12407,7 +12399,7 @@
       </c>
       <c r="T462" s="9"/>
     </row>
-    <row r="463" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A463" s="4"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -12431,7 +12423,7 @@
       </c>
       <c r="T463" s="9"/>
     </row>
-    <row r="464" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A464" s="4"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -12455,7 +12447,7 @@
       </c>
       <c r="T464" s="9"/>
     </row>
-    <row r="465" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="465" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A465" s="4"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -12479,7 +12471,7 @@
       </c>
       <c r="T465" s="9"/>
     </row>
-    <row r="466" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="466" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A466" s="4"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -12503,7 +12495,7 @@
       </c>
       <c r="T466" s="9"/>
     </row>
-    <row r="467" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="467" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A467" s="4"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -12527,7 +12519,7 @@
       </c>
       <c r="T467" s="9"/>
     </row>
-    <row r="468" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A468" s="4"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -12551,7 +12543,7 @@
       </c>
       <c r="T468" s="9"/>
     </row>
-    <row r="469" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="469" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A469" s="4"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -12575,7 +12567,7 @@
       </c>
       <c r="T469" s="9"/>
     </row>
-    <row r="470" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A470" s="4"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -12593,7 +12585,7 @@
       </c>
       <c r="T470" s="9"/>
     </row>
-    <row r="471" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A471" s="4"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -12611,7 +12603,7 @@
       </c>
       <c r="T471" s="9"/>
     </row>
-    <row r="472" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A472" s="4"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -12626,7 +12618,7 @@
       <c r="L472" s="5"/>
       <c r="T472" s="9"/>
     </row>
-    <row r="473" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A473" s="4" t="s">
         <v>164</v>
       </c>
@@ -12668,7 +12660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="474" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A474" s="4"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -12692,7 +12684,7 @@
       </c>
       <c r="T474" s="9"/>
     </row>
-    <row r="475" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="475" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A475" s="4"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -12716,7 +12708,7 @@
       </c>
       <c r="T475" s="9"/>
     </row>
-    <row r="476" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="476" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A476" s="4"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -12740,7 +12732,7 @@
       </c>
       <c r="T476" s="9"/>
     </row>
-    <row r="477" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="477" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A477" s="4"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -12764,7 +12756,7 @@
       </c>
       <c r="T477" s="9"/>
     </row>
-    <row r="478" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="478" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A478" s="4"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -12788,7 +12780,7 @@
       </c>
       <c r="T478" s="9"/>
     </row>
-    <row r="479" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A479" s="4"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -12812,7 +12804,7 @@
       </c>
       <c r="T479" s="9"/>
     </row>
-    <row r="480" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="480" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A480" s="4"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -12836,7 +12828,7 @@
       </c>
       <c r="T480" s="9"/>
     </row>
-    <row r="481" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="481" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A481" s="4"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -12860,7 +12852,7 @@
       </c>
       <c r="T481" s="9"/>
     </row>
-    <row r="482" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="482" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A482" s="4"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -12884,7 +12876,7 @@
       </c>
       <c r="T482" s="9"/>
     </row>
-    <row r="483" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="483" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A483" s="4"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -12908,7 +12900,7 @@
       </c>
       <c r="T483" s="9"/>
     </row>
-    <row r="484" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="484" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A484" s="4"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -12932,7 +12924,7 @@
       </c>
       <c r="T484" s="9"/>
     </row>
-    <row r="485" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A485" s="4"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -12956,7 +12948,7 @@
       </c>
       <c r="T485" s="9"/>
     </row>
-    <row r="486" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A486" s="4"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -12980,7 +12972,7 @@
       </c>
       <c r="T486" s="9"/>
     </row>
-    <row r="487" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="487" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A487" s="4"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -13004,7 +12996,7 @@
       </c>
       <c r="T487" s="9"/>
     </row>
-    <row r="488" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="488" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -13028,7 +13020,7 @@
       </c>
       <c r="T488" s="9"/>
     </row>
-    <row r="489" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="489" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A489" s="4"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -13052,7 +13044,7 @@
       </c>
       <c r="T489" s="9"/>
     </row>
-    <row r="490" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -13076,7 +13068,7 @@
       </c>
       <c r="T490" s="9"/>
     </row>
-    <row r="491" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="491" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A491" s="4"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -13100,7 +13092,7 @@
       </c>
       <c r="T491" s="9"/>
     </row>
-    <row r="492" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -13118,7 +13110,7 @@
       </c>
       <c r="T492" s="9"/>
     </row>
-    <row r="493" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -13136,7 +13128,7 @@
       </c>
       <c r="T493" s="9"/>
     </row>
-    <row r="494" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A494" s="4"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -13151,7 +13143,7 @@
       <c r="L494" s="5"/>
       <c r="T494" s="9"/>
     </row>
-    <row r="495" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A495" s="4" t="s">
         <v>168</v>
       </c>
@@ -13193,7 +13185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="496" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -13217,7 +13209,7 @@
       </c>
       <c r="T496" s="9"/>
     </row>
-    <row r="497" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="497" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A497" s="4"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -13241,7 +13233,7 @@
       </c>
       <c r="T497" s="9"/>
     </row>
-    <row r="498" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="498" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -13265,7 +13257,7 @@
       </c>
       <c r="T498" s="9"/>
     </row>
-    <row r="499" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A499" s="4"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -13289,7 +13281,7 @@
       </c>
       <c r="T499" s="9"/>
     </row>
-    <row r="500" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="500" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -13313,7 +13305,7 @@
       </c>
       <c r="T500" s="9"/>
     </row>
-    <row r="501" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="501" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A501" s="4"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -13337,7 +13329,7 @@
       </c>
       <c r="T501" s="9"/>
     </row>
-    <row r="502" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="502" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -13361,7 +13353,7 @@
       </c>
       <c r="T502" s="9"/>
     </row>
-    <row r="503" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="503" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -13385,7 +13377,7 @@
       </c>
       <c r="T503" s="9"/>
     </row>
-    <row r="504" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -13409,7 +13401,7 @@
       </c>
       <c r="T504" s="9"/>
     </row>
-    <row r="505" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -13433,7 +13425,7 @@
       </c>
       <c r="T505" s="9"/>
     </row>
-    <row r="506" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="506" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -13457,7 +13449,7 @@
       </c>
       <c r="T506" s="9"/>
     </row>
-    <row r="507" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="507" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -13481,7 +13473,7 @@
       </c>
       <c r="T507" s="9"/>
     </row>
-    <row r="508" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="508" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -13505,7 +13497,7 @@
       </c>
       <c r="T508" s="9"/>
     </row>
-    <row r="509" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A509" s="4"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -13523,7 +13515,7 @@
       </c>
       <c r="T509" s="9"/>
     </row>
-    <row r="510" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A510" s="4"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -13538,7 +13530,7 @@
       <c r="L510" s="5"/>
       <c r="T510" s="9"/>
     </row>
-    <row r="511" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="12"/>
       <c r="B511" s="13"/>
       <c r="C511" s="13"/>
@@ -13560,26 +13552,6 @@
       <c r="S511" s="13"/>
       <c r="T511" s="14"/>
     </row>
-    <row r="512" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="361">
     <mergeCell ref="A1:A2"/>
@@ -14669,13 +14641,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45279F5D-B700-438B-95CE-DB1E619FBE20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F9015CC-7D96-441A-BD29-BAA0DF76731F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A60FAB-DEB6-4937-9E84-13B62E5D5619}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C4FFEE-3AA6-466D-B8F7-E4B943C467A8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A58A809-D9A1-4D28-9486-0F0069D3AB25}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37593277-473E-4EF2-8E2A-DA44D4B1062E}"/>
 </file>